--- a/fluxes_23_main_dataset.xlsx
+++ b/fluxes_23_main_dataset.xlsx
@@ -1111,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.842294223892791e-11</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>5.01961609914981e-07</v>
@@ -1420,7 +1420,7 @@
         <v>2.480929077979519e-18</v>
       </c>
       <c r="D5">
-        <v>0.0001159150596462367</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>2.564157800769988e-08</v>
@@ -1729,7 +1729,7 @@
         <v>2.366354064630015e-06</v>
       </c>
       <c r="E6">
-        <v>4.67629523006933e-09</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>6.463107593166503e-14</v>
@@ -2038,7 +2038,7 @@
         <v>3.588147529169805e-16</v>
       </c>
       <c r="F7">
-        <v>1.061211577794396e-14</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0.004257244140847845</v>
@@ -2347,7 +2347,7 @@
         <v>2.695682749796197e-13</v>
       </c>
       <c r="G8">
-        <v>0.0005525033701685821</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>6.112905835590069e-18</v>
@@ -2656,7 +2656,7 @@
         <v>7.033607356261823e-26</v>
       </c>
       <c r="H9">
-        <v>5.75740072240052e-12</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>3.189538911659006e-18</v>
@@ -2965,7 +2965,7 @@
         <v>2.757408146838659e-11</v>
       </c>
       <c r="I10">
-        <v>3.709424634260261e-15</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0.0007693777892226249</v>
@@ -3274,7 +3274,7 @@
         <v>0.0004100169456562277</v>
       </c>
       <c r="J11">
-        <v>2.71215083676201e-15</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>2.368405680000642e-19</v>
@@ -3583,7 +3583,7 @@
         <v>4.525556382276041e-11</v>
       </c>
       <c r="K12">
-        <v>3.003685168918764e-06</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0.0005899070142776402</v>
@@ -3892,7 +3892,7 @@
         <v>0.0005720557945767966</v>
       </c>
       <c r="L13">
-        <v>1.549454576943845e-07</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>2.763734914670481e-14</v>
@@ -4201,7 +4201,7 @@
         <v>4.831998231227894e-06</v>
       </c>
       <c r="M14">
-        <v>1.292168789662582e-07</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>4.103848723448574e-12</v>
@@ -4510,7 +4510,7 @@
         <v>1.092673646521803e-05</v>
       </c>
       <c r="N15">
-        <v>0.01639880590342877</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>1.079641733006576e-21</v>
@@ -4819,7 +4819,7 @@
         <v>6.914378019291588e-13</v>
       </c>
       <c r="O16">
-        <v>3.287092454819776e-22</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>6.966143457509117e-17</v>
@@ -5128,7 +5128,7 @@
         <v>5.916030882849496e-13</v>
       </c>
       <c r="P17">
-        <v>0.0009562339469688197</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>1.274527778022781e-05</v>
@@ -5437,7 +5437,7 @@
         <v>3.622607984478324e-05</v>
       </c>
       <c r="Q18">
-        <v>1.91613969337532e-36</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>0.0001232708741450096</v>
@@ -5746,7 +5746,7 @@
         <v>9.95240146572925e-10</v>
       </c>
       <c r="R19">
-        <v>1.408783685582367e-08</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <v>8.496140622569665e-09</v>
@@ -6055,7 +6055,7 @@
         <v>2.013684918269972e-08</v>
       </c>
       <c r="S20">
-        <v>6.92628754246441e-22</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>0.0001776053061574081</v>
@@ -6364,7 +6364,7 @@
         <v>4.551969373986156e-17</v>
       </c>
       <c r="T21">
-        <v>2.01007656316553e-15</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>1.157402168304476e-08</v>
@@ -6673,7 +6673,7 @@
         <v>2.088255759584906e-41</v>
       </c>
       <c r="U22">
-        <v>4.932449302357432e-08</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>4.529407695769159e-11</v>
@@ -6982,7 +6982,7 @@
         <v>3.226952226548491e-23</v>
       </c>
       <c r="V23">
-        <v>4.770399907060694e-42</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>4.297083142453818e-13</v>
@@ -7291,7 +7291,7 @@
         <v>2.591845844449275e-31</v>
       </c>
       <c r="W24">
-        <v>9.364658230814948e-09</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <v>2.381809847588022e-05</v>
@@ -7600,7 +7600,7 @@
         <v>0.000147941408710196</v>
       </c>
       <c r="X25">
-        <v>6.322603835400836e-07</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>8.802501504902342e-08</v>
@@ -7909,7 +7909,7 @@
         <v>4.333182924951397e-09</v>
       </c>
       <c r="Y26">
-        <v>2.055351196511374e-11</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <v>0.005082468710714943</v>
@@ -8218,7 +8218,7 @@
         <v>6.487231958241545e-05</v>
       </c>
       <c r="Z27">
-        <v>0.0009517433674589585</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>6.649182308882235e-31</v>
@@ -8527,7 +8527,7 @@
         <v>2.050525461839377e-19</v>
       </c>
       <c r="AA28">
-        <v>1.485691188374264e-07</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>1.469177239491012e-07</v>
@@ -8838,7 +8838,7 @@
         <v>2.585599892685192e-15</v>
       </c>
       <c r="AB29">
-        <v>1.849443870699922e-32</v>
+        <v>0</v>
       </c>
       <c r="AC29">
         <v>4.081139099643784e-12</v>
@@ -9147,7 +9147,7 @@
         <v>2.405468842996376e-05</v>
       </c>
       <c r="AC30">
-        <v>1.726756702157297e-14</v>
+        <v>0</v>
       </c>
       <c r="AD30">
         <v>6.183913353920231e-11</v>
@@ -9456,7 +9456,7 @@
         <v>5.104819984138846e-07</v>
       </c>
       <c r="AD31">
-        <v>1.396298040575516e-13</v>
+        <v>0</v>
       </c>
       <c r="AE31">
         <v>3.137335581695616e-05</v>
@@ -9765,7 +9765,7 @@
         <v>2.631330386561637e-08</v>
       </c>
       <c r="AE32">
-        <v>0.0001266872991767232</v>
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0.04053981781689785</v>
@@ -10074,7 +10074,7 @@
         <v>1.813508967103271e-05</v>
       </c>
       <c r="AF33">
-        <v>7.46295956314207e-17</v>
+        <v>0</v>
       </c>
       <c r="AG33">
         <v>2.895255562880845e-09</v>
@@ -10383,7 +10383,7 @@
         <v>0.02671481924863943</v>
       </c>
       <c r="AG34">
-        <v>0.0001792242289602701</v>
+        <v>0</v>
       </c>
       <c r="AH34">
         <v>6.723008814242715e-05</v>
@@ -10692,7 +10692,7 @@
         <v>3.812301491817436e-34</v>
       </c>
       <c r="AH35">
-        <v>5.356905091138478e-06</v>
+        <v>0</v>
       </c>
       <c r="AI35">
         <v>1.730297644503959e-13</v>
@@ -11001,7 +11001,7 @@
         <v>0.0001895250277680837</v>
       </c>
       <c r="AI36">
-        <v>4.077410993654501e-06</v>
+        <v>0</v>
       </c>
       <c r="AJ36">
         <v>0.01237618772419813</v>
@@ -11310,7 +11310,7 @@
         <v>1.371931598951708e-21</v>
       </c>
       <c r="AJ37">
-        <v>5.884243628341191e-20</v>
+        <v>0</v>
       </c>
       <c r="AK37">
         <v>5.109319716937437e-05</v>
@@ -11619,7 +11619,7 @@
         <v>0.007894750664718741</v>
       </c>
       <c r="AK38">
-        <v>3.469687593706074e-06</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>7.229489411873906e-08</v>
@@ -11928,7 +11928,7 @@
         <v>2.185931218957429e-06</v>
       </c>
       <c r="AL39">
-        <v>6.651922354873616e-06</v>
+        <v>0</v>
       </c>
       <c r="AM39">
         <v>2.922472515166763e-12</v>
@@ -12237,7 +12237,7 @@
         <v>0.001385340361316212</v>
       </c>
       <c r="AM40">
-        <v>0.0005915508512835247</v>
+        <v>0</v>
       </c>
       <c r="AN40">
         <v>2.066667577666355e-25</v>
@@ -12546,7 +12546,7 @@
         <v>5.580621108119281e-06</v>
       </c>
       <c r="AN41">
-        <v>1.459524172630255e-07</v>
+        <v>0</v>
       </c>
       <c r="AO41">
         <v>5.077502398647113e-17</v>
@@ -12855,7 +12855,7 @@
         <v>3.155278647546928e-07</v>
       </c>
       <c r="AO42">
-        <v>4.859796146721882e-11</v>
+        <v>0</v>
       </c>
       <c r="AP42">
         <v>2.445917976992351e-05</v>
@@ -13164,7 +13164,7 @@
         <v>1.629455164554143e-18</v>
       </c>
       <c r="AP43">
-        <v>5.397120445436884e-10</v>
+        <v>0</v>
       </c>
       <c r="AQ43">
         <v>1.998818630593498e-12</v>
@@ -13473,7 +13473,7 @@
         <v>4.549295587248901e-09</v>
       </c>
       <c r="AQ44">
-        <v>1.675064915880558e-06</v>
+        <v>0</v>
       </c>
       <c r="AR44">
         <v>6.832677869646271e-05</v>
@@ -13782,7 +13782,7 @@
         <v>0.001458358405061034</v>
       </c>
       <c r="AR45">
-        <v>0.02168776334610967</v>
+        <v>0</v>
       </c>
       <c r="AS45">
         <v>8.85879295144931e-10</v>
@@ -14091,7 +14091,7 @@
         <v>0.0006546205830513713</v>
       </c>
       <c r="AS46">
-        <v>2.107169070622187e-25</v>
+        <v>0</v>
       </c>
       <c r="AT46">
         <v>3.97368688362735e-11</v>
@@ -14400,7 +14400,7 @@
         <v>2.167939158393191e-06</v>
       </c>
       <c r="AT47">
-        <v>8.661285405475261e-09</v>
+        <v>0</v>
       </c>
       <c r="AU47">
         <v>1.473017552186793e-05</v>
@@ -14709,7 +14709,7 @@
         <v>1.955550612870748e-15</v>
       </c>
       <c r="AU48">
-        <v>7.199412448290798e-20</v>
+        <v>0</v>
       </c>
       <c r="AV48">
         <v>2.047206949211746e-14</v>
@@ -15018,7 +15018,7 @@
         <v>1.068107990203889e-05</v>
       </c>
       <c r="AV49">
-        <v>5.822223194844309e-30</v>
+        <v>0</v>
       </c>
       <c r="AW49">
         <v>5.398564239307462e-13</v>
@@ -15327,7 +15327,7 @@
         <v>4.938354472559429e-12</v>
       </c>
       <c r="AW50">
-        <v>4.174274650578519e-05</v>
+        <v>0</v>
       </c>
       <c r="AX50">
         <v>8.405744538928224e-27</v>
@@ -15636,7 +15636,7 @@
         <v>2.797092968421827e-18</v>
       </c>
       <c r="AX51">
-        <v>2.889006980218547e-08</v>
+        <v>0</v>
       </c>
       <c r="AY51">
         <v>3.095534560944129e-07</v>
@@ -15945,7 +15945,7 @@
         <v>3.249767107185949e-05</v>
       </c>
       <c r="AY52">
-        <v>3.884165078112358e-07</v>
+        <v>0</v>
       </c>
       <c r="AZ52">
         <v>3.130251284906988e-08</v>
@@ -16254,7 +16254,7 @@
         <v>7.689773510319322e-06</v>
       </c>
       <c r="AZ53">
-        <v>7.697541758314248e-19</v>
+        <v>0</v>
       </c>
       <c r="BA53">
         <v>4.977490841463508e-13</v>
@@ -16565,7 +16565,7 @@
         <v>7.158872329532153e-07</v>
       </c>
       <c r="BA54">
-        <v>8.744309743255269e-11</v>
+        <v>0</v>
       </c>
       <c r="BB54">
         <v>6.732423086376632e-14</v>
@@ -16874,7 +16874,7 @@
         <v>1.579662706443672e-30</v>
       </c>
       <c r="BB55">
-        <v>0.0005115784812190987</v>
+        <v>0</v>
       </c>
       <c r="BC55">
         <v>1.620423336401066e-06</v>
@@ -17183,7 +17183,7 @@
         <v>3.526374114377796e-09</v>
       </c>
       <c r="BC56">
-        <v>2.841120899806091e-05</v>
+        <v>0</v>
       </c>
       <c r="BD56">
         <v>3.982493198452507e-06</v>
@@ -17492,7 +17492,7 @@
         <v>1.626055419669285e-08</v>
       </c>
       <c r="BD57">
-        <v>0.0002634363620137759</v>
+        <v>0</v>
       </c>
       <c r="BE57">
         <v>0.02484850244059124</v>
@@ -17801,7 +17801,7 @@
         <v>4.105518802704757e-12</v>
       </c>
       <c r="BE58">
-        <v>0.0004258495449672214</v>
+        <v>0</v>
       </c>
       <c r="BF58">
         <v>4.46544595282788e-18</v>
@@ -18110,7 +18110,7 @@
         <v>4.188484985670471e-09</v>
       </c>
       <c r="BF59">
-        <v>1.788159492205272e-12</v>
+        <v>0</v>
       </c>
       <c r="BG59">
         <v>7.570178173066089e-05</v>
@@ -18419,7 +18419,7 @@
         <v>9.839305290238374e-15</v>
       </c>
       <c r="BG60">
-        <v>1.481495922562987e-30</v>
+        <v>0</v>
       </c>
       <c r="BH60">
         <v>7.498549581215548e-24</v>
@@ -18728,7 +18728,7 @@
         <v>9.543410587409248e-08</v>
       </c>
       <c r="BH61">
-        <v>3.009056441633437e-13</v>
+        <v>0</v>
       </c>
       <c r="BI61">
         <v>8.078268341984072e-11</v>
@@ -19037,7 +19037,7 @@
         <v>7.074311007067978e-31</v>
       </c>
       <c r="BI62">
-        <v>7.47399650888159e-07</v>
+        <v>0</v>
       </c>
       <c r="BJ62">
         <v>1.444178423499725e-12</v>
@@ -19346,7 +19346,7 @@
         <v>2.72222757871636e-15</v>
       </c>
       <c r="BJ63">
-        <v>2.427656182784322e-15</v>
+        <v>0</v>
       </c>
       <c r="BK63">
         <v>3.867721787547356e-12</v>
@@ -19655,7 +19655,7 @@
         <v>1.500622247695897e-07</v>
       </c>
       <c r="BK64">
-        <v>1.637002311863057e-24</v>
+        <v>0</v>
       </c>
       <c r="BL64">
         <v>2.340812190055156e-15</v>
@@ -19964,7 +19964,7 @@
         <v>6.242607862249982e-09</v>
       </c>
       <c r="BL65">
-        <v>0.006362771892162268</v>
+        <v>0</v>
       </c>
       <c r="BM65">
         <v>2.428438488247637e-18</v>
@@ -20273,7 +20273,7 @@
         <v>3.577616451796975e-05</v>
       </c>
       <c r="BM66">
-        <v>2.31010875638741e-11</v>
+        <v>0</v>
       </c>
       <c r="BN66">
         <v>0.002677203212435996</v>
@@ -20582,7 +20582,7 @@
         <v>7.301384295694074e-12</v>
       </c>
       <c r="BN67">
-        <v>1.142672214585695e-20</v>
+        <v>0</v>
       </c>
       <c r="BO67">
         <v>0.0005618914399955218</v>
@@ -20891,7 +20891,7 @@
         <v>1.773542321274076e-07</v>
       </c>
       <c r="BO68">
-        <v>0.009981437294827217</v>
+        <v>0</v>
       </c>
       <c r="BP68">
         <v>0.0003115148938694424</v>
@@ -21200,7 +21200,7 @@
         <v>0.05281825782095434</v>
       </c>
       <c r="BP69">
-        <v>0.0006178589279779541</v>
+        <v>0</v>
       </c>
       <c r="BQ69">
         <v>2.964232154986956e-06</v>
@@ -21509,7 +21509,7 @@
         <v>1.498602985766208e-07</v>
       </c>
       <c r="BQ70">
-        <v>2.577910230300392e-08</v>
+        <v>0</v>
       </c>
       <c r="BR70">
         <v>8.212629745462488e-06</v>
@@ -21818,7 +21818,7 @@
         <v>1.623000306810958e-10</v>
       </c>
       <c r="BR71">
-        <v>1.520795781586204e-28</v>
+        <v>0</v>
       </c>
       <c r="BS71">
         <v>2.57726578835478e-11</v>
@@ -22127,7 +22127,7 @@
         <v>7.870373691287063e-19</v>
       </c>
       <c r="BS72">
-        <v>0.004898631805902036</v>
+        <v>0</v>
       </c>
       <c r="BT72">
         <v>1.191933722851343e-28</v>
@@ -22436,7 +22436,7 @@
         <v>3.406308041429248e-15</v>
       </c>
       <c r="BT73">
-        <v>8.158372203216183e-10</v>
+        <v>0</v>
       </c>
       <c r="BU73">
         <v>1.296194012422834e-51</v>
@@ -22745,7 +22745,7 @@
         <v>5.21304588217982e-10</v>
       </c>
       <c r="BU74">
-        <v>4.707425701598167e-07</v>
+        <v>0</v>
       </c>
       <c r="BV74">
         <v>7.501592556098756e-21</v>
@@ -23054,7 +23054,7 @@
         <v>1.491608866952388e-12</v>
       </c>
       <c r="BV75">
-        <v>8.425828868180399e-12</v>
+        <v>0</v>
       </c>
       <c r="BW75">
         <v>9.320326437985345e-06</v>
@@ -23363,7 +23363,7 @@
         <v>5.273837036980254e-06</v>
       </c>
       <c r="BW76">
-        <v>3.909501538581154e-15</v>
+        <v>0</v>
       </c>
       <c r="BX76">
         <v>7.975659792904291e-09</v>
@@ -23672,7 +23672,7 @@
         <v>0.000487001288526922</v>
       </c>
       <c r="BX77">
-        <v>0.001019466263785505</v>
+        <v>0</v>
       </c>
       <c r="BY77">
         <v>3.167416974817398e-06</v>
@@ -23981,7 +23981,7 @@
         <v>0.0002869199540768216</v>
       </c>
       <c r="BY78">
-        <v>1.916807323266713e-25</v>
+        <v>0</v>
       </c>
       <c r="BZ78">
         <v>1.120475612760505e-05</v>
@@ -24292,7 +24292,7 @@
         <v>3.763966425205537e-10</v>
       </c>
       <c r="BZ79">
-        <v>1.612503416655856e-25</v>
+        <v>0</v>
       </c>
       <c r="CA79">
         <v>5.338105855452839e-12</v>
@@ -24601,7 +24601,7 @@
         <v>1.449090255176404e-08</v>
       </c>
       <c r="CA80">
-        <v>0.00110188025087525</v>
+        <v>0</v>
       </c>
       <c r="CB80">
         <v>6.519539787978293e-22</v>
@@ -24910,7 +24910,7 @@
         <v>9.618816568161634e-06</v>
       </c>
       <c r="CB81">
-        <v>1.426198018167718e-06</v>
+        <v>0</v>
       </c>
       <c r="CC81">
         <v>0.0008297835917777008</v>
@@ -25219,7 +25219,7 @@
         <v>6.540928841580892e-23</v>
       </c>
       <c r="CC82">
-        <v>0.0003328131431497035</v>
+        <v>0</v>
       </c>
       <c r="CD82">
         <v>2.811186743521367e-16</v>
@@ -25528,7 +25528,7 @@
         <v>0.0003527296737733446</v>
       </c>
       <c r="CD83">
-        <v>9.333113433851493e-06</v>
+        <v>0</v>
       </c>
       <c r="CE83">
         <v>1.432875257838885e-20</v>
@@ -25837,7 +25837,7 @@
         <v>0.003552884274218147</v>
       </c>
       <c r="CE84">
-        <v>3.250899998821659e-07</v>
+        <v>0</v>
       </c>
       <c r="CF84">
         <v>1.53657258895548e-06</v>
@@ -26146,7 +26146,7 @@
         <v>2.528745707549411e-12</v>
       </c>
       <c r="CF85">
-        <v>2.712481009724075e-08</v>
+        <v>0</v>
       </c>
       <c r="CG85">
         <v>4.40971865685987e-08</v>
@@ -26455,7 +26455,7 @@
         <v>6.401432645992313e-13</v>
       </c>
       <c r="CG86">
-        <v>1.154413277924209e-14</v>
+        <v>0</v>
       </c>
       <c r="CH86">
         <v>2.662988440738735e-07</v>
@@ -26764,7 +26764,7 @@
         <v>4.725767094575864e-19</v>
       </c>
       <c r="CH87">
-        <v>4.744885864071888e-05</v>
+        <v>0</v>
       </c>
       <c r="CI87">
         <v>2.110976832870479e-05</v>
@@ -27073,7 +27073,7 @@
         <v>5.413693704670976e-27</v>
       </c>
       <c r="CI88">
-        <v>2.009687278644217e-05</v>
+        <v>0</v>
       </c>
       <c r="CJ88">
         <v>1.504013386163803e-06</v>
@@ -27382,7 +27382,7 @@
         <v>0.0001688501998248263</v>
       </c>
       <c r="CJ89">
-        <v>2.401040106378293e-15</v>
+        <v>0</v>
       </c>
       <c r="CK89">
         <v>2.234614772254807e-05</v>
@@ -27691,7 +27691,7 @@
         <v>3.319606738638197e-14</v>
       </c>
       <c r="CK90">
-        <v>5.818753029542706e-44</v>
+        <v>0</v>
       </c>
       <c r="CL90">
         <v>4.859561166532361e-07</v>
@@ -28000,7 +28000,7 @@
         <v>7.053269765000354e-09</v>
       </c>
       <c r="CL91">
-        <v>0.001428614748374911</v>
+        <v>0</v>
       </c>
       <c r="CM91">
         <v>4.84408098530167e-35</v>
@@ -28309,7 +28309,7 @@
         <v>6.540313396678261e-11</v>
       </c>
       <c r="CM92">
-        <v>8.079715105826781e-17</v>
+        <v>0</v>
       </c>
       <c r="CN92">
         <v>2.893231690480247e-11</v>
@@ -28618,7 +28618,7 @@
         <v>1.611499808333232e-22</v>
       </c>
       <c r="CN93">
-        <v>1.085769087734191e-05</v>
+        <v>0</v>
       </c>
       <c r="CO93">
         <v>7.922065557368317e-05</v>
@@ -28927,7 +28927,7 @@
         <v>7.545409503501296e-10</v>
       </c>
       <c r="CO94">
-        <v>7.729917111657322e-12</v>
+        <v>0</v>
       </c>
       <c r="CP94">
         <v>0.0005123044261808427</v>
@@ -29236,7 +29236,7 @@
         <v>1.243462220663272e-19</v>
       </c>
       <c r="CP95">
-        <v>0.0005633288387617408</v>
+        <v>0</v>
       </c>
       <c r="CQ95">
         <v>1.367380592925047e-21</v>
@@ -29545,7 +29545,7 @@
         <v>7.818311824302753e-19</v>
       </c>
       <c r="CQ96">
-        <v>0.0003065019386481463</v>
+        <v>0</v>
       </c>
       <c r="CR96">
         <v>0.0003649392799711547</v>
@@ -29854,7 +29854,7 @@
         <v>1.825245172967426e-08</v>
       </c>
       <c r="CR97">
-        <v>8.637422856541588e-14</v>
+        <v>0</v>
       </c>
       <c r="CS97">
         <v>5.409874893544126e-10</v>
@@ -30163,7 +30163,7 @@
         <v>0.0001357380626907656</v>
       </c>
       <c r="CS98">
-        <v>1.01775946485818e-05</v>
+        <v>0</v>
       </c>
       <c r="CT98">
         <v>0.0001414765969847443</v>
@@ -30472,7 +30472,7 @@
         <v>4.370580449688852e-08</v>
       </c>
       <c r="CT99">
-        <v>6.264872373931364e-05</v>
+        <v>0</v>
       </c>
       <c r="CU99">
         <v>1.686062596900081e-32</v>
@@ -30781,7 +30781,7 @@
         <v>1.058783503508159e-11</v>
       </c>
       <c r="CU100">
-        <v>1.266371896903192e-07</v>
+        <v>0</v>
       </c>
       <c r="CV100">
         <v>0.00118937280994486</v>
@@ -31090,7 +31090,7 @@
         <v>6.095215124715004e-36</v>
       </c>
       <c r="CV101">
-        <v>5.379279506793427e-14</v>
+        <v>0</v>
       </c>
       <c r="CW101">
         <v>0.0002394241653514576</v>
@@ -31399,7 +31399,7 @@
         <v>5.557384907215866e-17</v>
       </c>
       <c r="CW102">
-        <v>1.126572808112918e-09</v>
+        <v>0</v>
       </c>
       <c r="CX102">
         <v>1.450282730079188e-07</v>
@@ -31708,7 +31708,7 @@
         <v>0.008825525759865416</v>
       </c>
       <c r="CX103">
-        <v>0.003678144672414394</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
